--- a/data/hr_manager_list.xlsx
+++ b/data/hr_manager_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Deepchayan\Leave Management System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F357A2-6C5E-4908-B869-077DCD577B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB2B4FB-2637-4076-971C-BEFCABF69C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{438C2CEB-9383-4E38-9587-E7B240DA8FA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{438C2CEB-9383-4E38-9587-E7B240DA8FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,24 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,18 +489,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -830,40 +802,40 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -871,7 +843,7 @@
       <c r="A2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -883,7 +855,7 @@
       <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="3">
         <v>9907364815</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -894,7 +866,7 @@
       <c r="A3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -906,7 +878,7 @@
       <c r="E3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="3">
         <v>8292839087</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -917,7 +889,7 @@
       <c r="A4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -929,7 +901,7 @@
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="3">
         <v>6297067524</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -940,7 +912,7 @@
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -952,7 +924,7 @@
       <c r="E5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="3">
         <v>6291801225</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -963,7 +935,7 @@
       <c r="A6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -975,7 +947,7 @@
       <c r="E6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="3">
         <v>8637062729</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -986,7 +958,7 @@
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -998,7 +970,7 @@
       <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="3">
         <v>9674628868</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1009,7 +981,7 @@
       <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1021,7 +993,7 @@
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="3">
         <v>8777067215</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1032,7 +1004,7 @@
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1044,7 +1016,7 @@
       <c r="E9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="3">
         <v>7364983808</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1055,7 +1027,7 @@
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1067,7 +1039,7 @@
       <c r="E10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="3">
         <v>9576134934</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1078,7 +1050,7 @@
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1090,7 +1062,7 @@
       <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="3">
         <v>8240786556</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1101,7 +1073,7 @@
       <c r="A12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1113,7 +1085,7 @@
       <c r="E12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="3">
         <v>7044168816</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1124,7 +1096,7 @@
       <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1147,7 +1119,7 @@
       <c r="A14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1170,7 +1142,7 @@
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1182,7 +1154,7 @@
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="3">
         <v>9875575905</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -1193,7 +1165,7 @@
       <c r="A16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1205,7 +1177,7 @@
       <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="3">
         <v>7003550614</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -1216,7 +1188,7 @@
       <c r="A17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1228,7 +1200,7 @@
       <c r="E17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="3">
         <v>9635006035</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1239,7 +1211,7 @@
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1251,7 +1223,7 @@
       <c r="E18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="3">
         <v>9810534557</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1262,7 +1234,7 @@
       <c r="A19" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1274,7 +1246,7 @@
       <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="3">
         <v>8731903147</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1285,7 +1257,7 @@
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1297,7 +1269,7 @@
       <c r="E20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="3">
         <v>8757399749</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -1308,7 +1280,7 @@
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1320,7 +1292,7 @@
       <c r="E21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="3">
         <v>9874558014</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -1331,7 +1303,7 @@
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1343,7 +1315,7 @@
       <c r="E22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="3">
         <v>8240573822</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -1354,7 +1326,7 @@
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1366,7 +1338,7 @@
       <c r="E23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="3">
         <v>9681080258</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -1377,7 +1349,7 @@
       <c r="A24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1389,7 +1361,7 @@
       <c r="E24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="3">
         <v>7719144852</v>
       </c>
       <c r="G24" s="3" t="s">

--- a/data/hr_manager_list.xlsx
+++ b/data/hr_manager_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB2B4FB-2637-4076-971C-BEFCABF69C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{16F357A2-6C5E-4908-B869-077DCD577B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04118A51-804E-4126-9D71-8D9B9C0CA534}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{438C2CEB-9383-4E38-9587-E7B240DA8FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{438C2CEB-9383-4E38-9587-E7B240DA8FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
   <si>
     <t>Email</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>deepchayan.chowdhury@pillp.in</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>123abc</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -448,13 +454,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,6 +498,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -799,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19C9514-C711-4217-995E-285E96560EF2}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,9 +834,10 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -838,8 +859,11 @@
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>98</v>
       </c>
@@ -861,8 +885,11 @@
       <c r="G2" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>92</v>
       </c>
@@ -884,8 +911,11 @@
       <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>99</v>
       </c>
@@ -907,8 +937,11 @@
       <c r="G4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
@@ -930,8 +963,11 @@
       <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>100</v>
       </c>
@@ -953,8 +989,11 @@
       <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
@@ -976,8 +1015,11 @@
       <c r="G7" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
@@ -999,8 +1041,11 @@
       <c r="G8" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -1022,8 +1067,11 @@
       <c r="G9" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -1045,8 +1093,11 @@
       <c r="G10" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1068,8 +1119,11 @@
       <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>81</v>
       </c>
@@ -1091,8 +1145,11 @@
       <c r="G12" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
@@ -1114,8 +1171,11 @@
       <c r="G13" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>104</v>
       </c>
@@ -1137,8 +1197,11 @@
       <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1160,8 +1223,11 @@
       <c r="G15" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>105</v>
       </c>
@@ -1183,8 +1249,11 @@
       <c r="G16" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>106</v>
       </c>
@@ -1206,8 +1275,11 @@
       <c r="G17" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -1229,8 +1301,11 @@
       <c r="G18" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>107</v>
       </c>
@@ -1252,8 +1327,11 @@
       <c r="G19" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -1275,8 +1353,11 @@
       <c r="G20" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
@@ -1298,8 +1379,11 @@
       <c r="G21" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -1321,8 +1405,11 @@
       <c r="G22" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -1344,8 +1431,11 @@
       <c r="G23" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>88</v>
       </c>
@@ -1366,6 +1456,9 @@
       </c>
       <c r="G24" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/hr_manager_list.xlsx
+++ b/data/hr_manager_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{16F357A2-6C5E-4908-B869-077DCD577B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04118A51-804E-4126-9D71-8D9B9C0CA534}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBBBFAE-2F32-4F86-B97D-7A1375F223FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{438C2CEB-9383-4E38-9587-E7B240DA8FA4}"/>
   </bookViews>
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +822,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1322,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="3">
-        <v>8731903147</v>
+        <v>8145312848</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>33</v>

--- a/data/hr_manager_list.xlsx
+++ b/data/hr_manager_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBBBFAE-2F32-4F86-B97D-7A1375F223FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{16F357A2-6C5E-4908-B869-077DCD577B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04118A51-804E-4126-9D71-8D9B9C0CA534}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{438C2CEB-9383-4E38-9587-E7B240DA8FA4}"/>
   </bookViews>
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +822,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1322,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="3">
-        <v>8145312848</v>
+        <v>8731903147</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>33</v>

--- a/data/hr_manager_list.xlsx
+++ b/data/hr_manager_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{16F357A2-6C5E-4908-B869-077DCD577B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04118A51-804E-4126-9D71-8D9B9C0CA534}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF3463-297E-40D3-9782-D44C226A84D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{438C2CEB-9383-4E38-9587-E7B240DA8FA4}"/>
   </bookViews>
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +822,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
         <v>87</v>
       </c>
       <c r="F17" s="3">
-        <v>9635006035</v>
+        <v>8145312848</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>44</v>
@@ -1322,7 +1322,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="3">
-        <v>8731903147</v>
+        <v>8145312848</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>33</v>

--- a/data/hr_manager_list.xlsx
+++ b/data/hr_manager_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF3463-297E-40D3-9782-D44C226A84D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{16F357A2-6C5E-4908-B869-077DCD577B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04118A51-804E-4126-9D71-8D9B9C0CA534}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{438C2CEB-9383-4E38-9587-E7B240DA8FA4}"/>
   </bookViews>
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +822,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
         <v>87</v>
       </c>
       <c r="F17" s="3">
-        <v>8145312848</v>
+        <v>9635006035</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>44</v>
@@ -1322,7 +1322,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="3">
-        <v>8145312848</v>
+        <v>8731903147</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>33</v>

--- a/data/hr_manager_list.xlsx
+++ b/data/hr_manager_list.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{16F357A2-6C5E-4908-B869-077DCD577B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04118A51-804E-4126-9D71-8D9B9C0CA534}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42751CFD-3D47-4B8B-9CCE-B45947732D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{438C2CEB-9383-4E38-9587-E7B240DA8FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
   <si>
     <t>Email</t>
   </si>
@@ -72,9 +75,6 @@
     <t>Vikram Ram</t>
   </si>
   <si>
-    <t>Amit Sardar</t>
-  </si>
-  <si>
     <t>Pritam Bhattacharya</t>
   </si>
   <si>
@@ -93,9 +93,6 @@
     <t>PILLP400</t>
   </si>
   <si>
-    <t>PILLP416</t>
-  </si>
-  <si>
     <t>PILLP481</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Data Analyst</t>
   </si>
   <si>
-    <t>Office Boy</t>
-  </si>
-  <si>
     <t>Purchase Manager</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>IT</t>
   </si>
   <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
     <t>HO</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
     <t>vikramram741@gmail.com</t>
   </si>
   <si>
-    <t>sarderamit84@gmail.com</t>
-  </si>
-  <si>
     <t>bhattacharya.pritam1993@gmail.com</t>
   </si>
   <si>
@@ -264,12 +252,6 @@
     <t>PILLP305</t>
   </si>
   <si>
-    <t>Satendra Narayan Singh</t>
-  </si>
-  <si>
-    <t>PILLP016</t>
-  </si>
-  <si>
     <t>Narendra Nath De</t>
   </si>
   <si>
@@ -318,15 +300,6 @@
     <t>prakash4352@gmail.com</t>
   </si>
   <si>
-    <t>Mess Incharge</t>
-  </si>
-  <si>
-    <t>MESS</t>
-  </si>
-  <si>
-    <t>satendranarayansingh86@gmail.com</t>
-  </si>
-  <si>
     <t>Store Incharge</t>
   </si>
   <si>
@@ -336,9 +309,6 @@
     <t>sudip.chowdhury@pillp.in</t>
   </si>
   <si>
-    <t>tapas.mandi@pillp.in</t>
-  </si>
-  <si>
     <t>narendra.de@pillp.in</t>
   </si>
   <si>
@@ -366,7 +336,22 @@
     <t>Password</t>
   </si>
   <si>
-    <t>123abc</t>
+    <t>Deepchayan@05</t>
+  </si>
+  <si>
+    <t>04061993</t>
+  </si>
+  <si>
+    <t>01111969</t>
+  </si>
+  <si>
+    <t>04091993</t>
+  </si>
+  <si>
+    <t>Raghav@123</t>
+  </si>
+  <si>
+    <t>tapasmandi198@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -471,7 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,7 +485,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,6 +517,465 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>Employee Code</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Department</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>WhatsApp Number</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Work Location</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>Password</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>PILLP145</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Survey</v>
+          </cell>
+          <cell r="E2">
+            <v>7044168816</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>hprakesh</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>PILLP216</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Highway Execution</v>
+          </cell>
+          <cell r="E3">
+            <v>9593692481</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>anish9932</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>PILLP001</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Structure Execution</v>
+          </cell>
+          <cell r="E4">
+            <v>9907364815</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>sc1992</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>PILLP108</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>DRIVER</v>
+          </cell>
+          <cell r="E5">
+            <v>9576134934</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>rk20425</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>PILLP223</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>Electrical</v>
+          </cell>
+          <cell r="E6">
+            <v>9474763555</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>manoj@pillp#9124</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>PILLP108</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Equipment Operators</v>
+          </cell>
+          <cell r="E7">
+            <v>9576134934</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>rk20425</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>PILLP108</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Equipment Helpers</v>
+          </cell>
+          <cell r="E8">
+            <v>9576134934</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>rk20425</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>PILLP223</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Mechanical</v>
+          </cell>
+          <cell r="E9">
+            <v>9474763555</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>manoj@pillp#9124</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>PILLP001</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>WEIGHBRIDGE</v>
+          </cell>
+          <cell r="E10">
+            <v>9907364815</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>sc1992</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>PILLP001</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>MESS</v>
+          </cell>
+          <cell r="E11">
+            <v>9907364815</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>sc1992</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>PILLP001</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>STORE</v>
+          </cell>
+          <cell r="E12">
+            <v>9907364815</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>sc1992</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>PILLP001</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Housekeeping</v>
+          </cell>
+          <cell r="E13">
+            <v>9907364815</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>Daltongunj</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>sc1992</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>PILLP487</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Survey</v>
+          </cell>
+          <cell r="E14">
+            <v>7719144852</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>Pulak96</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>PILLP060</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Highway Execution</v>
+          </cell>
+          <cell r="E15">
+            <v>7364983808</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>sourav1202</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>PILLP060</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Structure Execution</v>
+          </cell>
+          <cell r="E16">
+            <v>7364983808</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>sourav1202</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>PILLP013</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>DRIVER</v>
+          </cell>
+          <cell r="E17">
+            <v>6297067524</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>tapas7524</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>PILLP305</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Electrical</v>
+          </cell>
+          <cell r="E18">
+            <v>9635006035</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>Animesh.123</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>PILLP002</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>Equipment Operators</v>
+          </cell>
+          <cell r="E19">
+            <v>8292839087</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>Prakash@2151</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>PILLP002</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Equipment Helpers</v>
+          </cell>
+          <cell r="E20">
+            <v>8292839087</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>Prakash@2151</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>PILLP305</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Mechanical</v>
+          </cell>
+          <cell r="E21">
+            <v>9635006035</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>Animesh.123</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>PILLP013</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>MESS</v>
+          </cell>
+          <cell r="E22">
+            <v>6297067524</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>tapas7524</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>PILLP021</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>STORE</v>
+          </cell>
+          <cell r="E23">
+            <v>8637062729</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>Naren@2000</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>PILLP032</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Site Supervision</v>
+          </cell>
+          <cell r="E24">
+            <v>9674628868</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>Rahul@8868</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>PILLP032</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Housekeeping</v>
+          </cell>
+          <cell r="E25">
+            <v>9674628868</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>Raichur</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>Rahul@8868</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>PILLP256</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>All</v>
+          </cell>
+          <cell r="E26">
+            <v>9875575905</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>Muri</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>Qwerty@1234</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -819,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19C9514-C711-4217-995E-285E96560EF2}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +1290,7 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -860,631 +1316,595 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3">
         <v>9907364815</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>109</v>
+        <v>38</v>
+      </c>
+      <c r="H2" s="10" t="str">
+        <f>VLOOKUP(C2,[1]Sheet2!$C:$G,5,0)</f>
+        <v>sc1992</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9576134934</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="10" t="str">
+        <f>VLOOKUP(C3,[1]Sheet2!$C:$G,5,0)</f>
+        <v>rk20425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8292839087</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3">
-        <v>6297067524</v>
+        <v>7044168816</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>109</v>
+        <v>38</v>
+      </c>
+      <c r="H4" s="10" t="str">
+        <f>VLOOKUP(C4,[1]Sheet2!$C:$G,5,0)</f>
+        <v>hprakesh</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="3">
-        <v>6291801225</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>109</v>
+      <c r="F5" s="7">
+        <v>9593692481</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f>VLOOKUP(C5,[1]Sheet2!$C:$G,5,0)</f>
+        <v>anish9932</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="3">
-        <v>8637062729</v>
+        <v>80</v>
+      </c>
+      <c r="F6" s="7">
+        <v>9474763555</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>109</v>
+        <v>38</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f>VLOOKUP(C6,[1]Sheet2!$C:$G,5,0)</f>
+        <v>manoj@pillp#9124</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>101</v>
+      <c r="A7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8240786556</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="3">
-        <v>9674628868</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>109</v>
+      <c r="H7" s="10">
+        <v>12091994</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3">
-        <v>8777067215</v>
+        <v>7003550614</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>109</v>
+        <v>29</v>
+      </c>
+      <c r="H8" s="10">
+        <v>25011996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3">
-        <v>7364983808</v>
+        <v>8731903147</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>109</v>
+        <v>29</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3">
-        <v>9576134934</v>
+        <v>8757399749</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>109</v>
+        <v>29</v>
+      </c>
+      <c r="H10" s="10">
+        <v>15121995</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>34</v>
+      <c r="A11" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3">
-        <v>8240786556</v>
+        <v>8240573822</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3">
-        <v>7044168816</v>
+        <v>9681080258</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>109</v>
+        <v>29</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="7">
-        <v>9593692481</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>109</v>
+        <v>26</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9875575905</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="10" t="str">
+        <f>VLOOKUP(C13,[1]Sheet2!$C:$G,5,0)</f>
+        <v>Qwerty@1234</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="7">
-        <v>9474763555</v>
+        <v>84</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8292839087</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f>VLOOKUP(C14,[1]Sheet2!$C:$G,5,0)</f>
+        <v>Prakash@2151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3">
-        <v>9875575905</v>
+        <v>6297067524</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f>VLOOKUP(C15,[1]Sheet2!$C:$G,5,0)</f>
+        <v>tapas7524</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="F16" s="3">
-        <v>7003550614</v>
+        <v>8637062729</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f>VLOOKUP(C16,[1]Sheet2!$C:$G,5,0)</f>
+        <v>Naren@2000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3">
-        <v>9635006035</v>
+        <v>9674628868</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f>VLOOKUP(C17,[1]Sheet2!$C:$G,5,0)</f>
+        <v>Rahul@8868</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F18" s="3">
-        <v>9810534557</v>
+        <v>8777067215</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>64</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F19" s="3">
-        <v>8731903147</v>
+        <v>7364983808</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f>VLOOKUP(C19,[1]Sheet2!$C:$G,5,0)</f>
+        <v>sourav1202</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>68</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3">
-        <v>8757399749</v>
+        <v>9635006035</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="H20" s="10" t="str">
+        <f>VLOOKUP(C20,[1]Sheet2!$C:$G,5,0)</f>
+        <v>Animesh.123</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F21" s="3">
-        <v>9874558014</v>
+        <v>9810534557</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F22" s="3">
-        <v>8240573822</v>
+        <v>7719144852</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="3">
-        <v>9681080258</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7719144852</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f>VLOOKUP(C22,[1]Sheet2!$C:$G,5,0)</f>
+        <v>Pulak96</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H22" xr:uid="{A19C9514-C711-4217-995E-285E96560EF2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
+      <sortCondition ref="G1:G22"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" xr:uid="{F01B62FB-728E-4838-B9B2-870916299B71}"/>
-    <hyperlink ref="A20" r:id="rId2" xr:uid="{F47DB43E-01B9-4E2D-A8B9-8F94AFCCBF26}"/>
-    <hyperlink ref="A21" r:id="rId3" xr:uid="{A84C7C77-2842-4275-8ECD-559CC6EF8618}"/>
-    <hyperlink ref="A22" r:id="rId4" xr:uid="{1A83EC9A-F533-4094-99B7-7CA04C7418C6}"/>
-    <hyperlink ref="A23" r:id="rId5" xr:uid="{2D1F75E1-4686-44B2-B40D-DFE127CE43B5}"/>
-    <hyperlink ref="A15" r:id="rId6" xr:uid="{4772A8B5-7D61-422C-9E5C-4D15BCCD0499}"/>
-    <hyperlink ref="A12" r:id="rId7" xr:uid="{92CE03CE-F180-421C-82C5-F0ABC238C37E}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{25C7F72E-42C2-429E-B452-36E6961DF3F4}"/>
-    <hyperlink ref="A24" r:id="rId9" xr:uid="{AF81BD93-4A60-4888-B408-44E2647AAD03}"/>
-    <hyperlink ref="A9" r:id="rId10" xr:uid="{121B40B4-C2AB-4015-AB47-3D743A346EBD}"/>
-    <hyperlink ref="A3" r:id="rId11" display="mailto:prakash4352@gmail.com" xr:uid="{0BC0EC25-55D0-4543-B9CD-261ED5E3BBC2}"/>
-    <hyperlink ref="A5" r:id="rId12" display="mailto:satendranarayansingh86@gmail.com" xr:uid="{D5140567-1001-49EF-A348-99E4C0EA3BB1}"/>
-    <hyperlink ref="A2" r:id="rId13" xr:uid="{277548C5-87E8-488D-A05A-CFC08C664093}"/>
-    <hyperlink ref="A4" r:id="rId14" xr:uid="{63AE9E6E-F2AD-4825-B3CA-366953CB0317}"/>
-    <hyperlink ref="A6" r:id="rId15" xr:uid="{8E3FA4F9-C6BB-41B6-B5D0-0F742A6A47E6}"/>
-    <hyperlink ref="A7" r:id="rId16" xr:uid="{E3379D9A-5129-4040-85AF-CF0596E6CB8E}"/>
-    <hyperlink ref="A8" r:id="rId17" xr:uid="{0FB35366-DCD7-4ADF-95AD-2D56E7A7DD3B}"/>
-    <hyperlink ref="A13" r:id="rId18" xr:uid="{802EC910-F9EF-49C1-BD70-BFD6C7324F25}"/>
-    <hyperlink ref="A14" r:id="rId19" xr:uid="{6957B299-E95F-4C64-AE4C-83D7DEBE302C}"/>
-    <hyperlink ref="A16" r:id="rId20" xr:uid="{D67A5827-DCA9-45AB-9517-9B2F12F516C7}"/>
-    <hyperlink ref="A17" r:id="rId21" xr:uid="{982A83A9-6689-47A4-A871-3E8DDD83B2B3}"/>
-    <hyperlink ref="A19" r:id="rId22" xr:uid="{52DEA729-B551-4C94-8E53-A5E43C52C2B7}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{F01B62FB-728E-4838-B9B2-870916299B71}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{F47DB43E-01B9-4E2D-A8B9-8F94AFCCBF26}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{1A83EC9A-F533-4094-99B7-7CA04C7418C6}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{2D1F75E1-4686-44B2-B40D-DFE127CE43B5}"/>
+    <hyperlink ref="A13" r:id="rId5" xr:uid="{4772A8B5-7D61-422C-9E5C-4D15BCCD0499}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{92CE03CE-F180-421C-82C5-F0ABC238C37E}"/>
+    <hyperlink ref="A3" r:id="rId7" xr:uid="{25C7F72E-42C2-429E-B452-36E6961DF3F4}"/>
+    <hyperlink ref="A22" r:id="rId8" xr:uid="{AF81BD93-4A60-4888-B408-44E2647AAD03}"/>
+    <hyperlink ref="A19" r:id="rId9" xr:uid="{121B40B4-C2AB-4015-AB47-3D743A346EBD}"/>
+    <hyperlink ref="A14" r:id="rId10" display="mailto:prakash4352@gmail.com" xr:uid="{0BC0EC25-55D0-4543-B9CD-261ED5E3BBC2}"/>
+    <hyperlink ref="A2" r:id="rId11" xr:uid="{277548C5-87E8-488D-A05A-CFC08C664093}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{8E3FA4F9-C6BB-41B6-B5D0-0F742A6A47E6}"/>
+    <hyperlink ref="A17" r:id="rId13" xr:uid="{E3379D9A-5129-4040-85AF-CF0596E6CB8E}"/>
+    <hyperlink ref="A18" r:id="rId14" xr:uid="{0FB35366-DCD7-4ADF-95AD-2D56E7A7DD3B}"/>
+    <hyperlink ref="A5" r:id="rId15" xr:uid="{802EC910-F9EF-49C1-BD70-BFD6C7324F25}"/>
+    <hyperlink ref="A6" r:id="rId16" xr:uid="{6957B299-E95F-4C64-AE4C-83D7DEBE302C}"/>
+    <hyperlink ref="A8" r:id="rId17" xr:uid="{D67A5827-DCA9-45AB-9517-9B2F12F516C7}"/>
+    <hyperlink ref="A20" r:id="rId18" xr:uid="{982A83A9-6689-47A4-A871-3E8DDD83B2B3}"/>
+    <hyperlink ref="A9" r:id="rId19" xr:uid="{52DEA729-B551-4C94-8E53-A5E43C52C2B7}"/>
+    <hyperlink ref="A15" r:id="rId20" xr:uid="{5D5EB309-8A69-4A27-9D0A-0BE4410EC3BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
